--- a/price.xlsx
+++ b/price.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>禅道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,13 +286,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,7 +599,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <f>SUM(F3:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -601,35 +782,247 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <f>SUM(E3:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -643,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
@@ -654,7 +1047,9 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -749,350 +1144,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B3:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <f>SUM(D3:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <f>SUM(D3:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/price.xlsx
+++ b/price.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Je</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +992,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1069,7 +1073,9 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8970" activeTab="1"/>
+    <workbookView windowWidth="19740" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="培训" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>买卖酷报价清单--培训</t>
   </si>
@@ -53,7 +53,14 @@
     <t>java多线程</t>
   </si>
   <si>
+    <t>java concurrent包应用</t>
+  </si>
+  <si>
     <t>java异步编程</t>
+  </si>
+  <si>
+    <t>1.事件驱动编程
+2.spring-reactor模式</t>
   </si>
   <si>
     <t>合计</t>
@@ -263,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -596,11 +606,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -626,8 +636,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -695,20 +705,24 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="24.95" customHeight="1" spans="1:7">
+    <row r="5" ht="39" customHeight="1" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -760,7 +774,7 @@
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -805,7 +819,7 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -821,7 +835,7 @@
   <sheetData>
     <row r="1" ht="48.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -834,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -854,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -867,7 +881,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -877,7 +891,7 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -888,10 +902,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -902,10 +916,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -916,10 +930,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -930,10 +944,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -944,10 +958,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -958,10 +972,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -972,10 +986,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -983,7 +997,7 @@
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1048,7 +1062,7 @@
   <sheetData>
     <row r="1" ht="48.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1061,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1081,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
@@ -1093,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1115,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1154,7 +1168,7 @@
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="培训" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>买卖酷报价清单--培训</t>
   </si>
@@ -47,15 +47,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>java多线程</t>
-  </si>
-  <si>
-    <t>java异步编程</t>
-  </si>
-  <si>
     <t>合计</t>
   </si>
   <si>
@@ -135,19 +126,48 @@
   </si>
   <si>
     <t>Je</t>
+  </si>
+  <si>
+    <t>敏捷开发培训</t>
+  </si>
+  <si>
+    <t>重新定义软件研发流程和团队角色分配</t>
+  </si>
+  <si>
+    <t>1.指导规范开发流程</t>
+  </si>
+  <si>
+    <t>数据库知识培训</t>
+  </si>
+  <si>
+    <t>脚本开发培训</t>
+  </si>
+  <si>
+    <t>基本脚本开发知识点</t>
+  </si>
+  <si>
+    <t>指导自动化脚本编写方法</t>
+  </si>
+  <si>
+    <t>发布流程规范</t>
+  </si>
+  <si>
+    <t>发布流程步骤以及评价标准</t>
+  </si>
+  <si>
+    <t>2.指导编写需求说明书、详细设计书、测试用例等必要的文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tony填写</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -169,20 +189,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -242,56 +282,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -590,6 +680,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -622,194 +713,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <f>SUM(F3:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1"/>
-    <row r="12" ht="20.1" customHeight="1"/>
-    <row r="13" ht="20.1" customHeight="1"/>
-    <row r="14" ht="20.1" customHeight="1"/>
-    <row r="15" ht="20.1" customHeight="1"/>
-    <row r="16" ht="20.1" customHeight="1"/>
-    <row r="17" ht="20.1" customHeight="1"/>
-    <row r="18" ht="20.1" customHeight="1"/>
-    <row r="19" ht="20.1" customHeight="1"/>
-    <row r="20" ht="20.1" customHeight="1"/>
-    <row r="21" ht="20.1" customHeight="1"/>
-    <row r="22" ht="20.1" customHeight="1"/>
-    <row r="23" ht="20.1" customHeight="1"/>
-    <row r="24" ht="20.1" customHeight="1"/>
-    <row r="25" ht="20.1" customHeight="1"/>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -819,199 +925,199 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.75" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A12" s="4">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <f>SUM(E3:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1"/>
-    <row r="15" ht="20.1" customHeight="1"/>
-    <row r="16" ht="20.1" customHeight="1"/>
-    <row r="17" ht="20.1" customHeight="1"/>
-    <row r="18" ht="20.1" customHeight="1"/>
-    <row r="19" ht="20.1" customHeight="1"/>
-    <row r="20" ht="20.1" customHeight="1"/>
-    <row r="21" ht="20.1" customHeight="1"/>
-    <row r="22" ht="20.1" customHeight="1"/>
-    <row r="23" ht="20.1" customHeight="1"/>
-    <row r="24" ht="20.1" customHeight="1"/>
-    <row r="25" ht="20.1" customHeight="1"/>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
-    <row r="29" ht="20.1" customHeight="1"/>
-    <row r="30" ht="20.1" customHeight="1"/>
-    <row r="31" ht="20.1" customHeight="1"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
@@ -1021,22 +1127,21 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -1046,149 +1151,149 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.75" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <f>SUM(E3:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1"/>
-    <row r="12" ht="20.1" customHeight="1"/>
-    <row r="13" ht="20.1" customHeight="1"/>
-    <row r="14" ht="20.1" customHeight="1"/>
-    <row r="15" ht="20.1" customHeight="1"/>
-    <row r="16" ht="20.1" customHeight="1"/>
-    <row r="17" ht="20.1" customHeight="1"/>
-    <row r="18" ht="20.1" customHeight="1"/>
-    <row r="19" ht="20.1" customHeight="1"/>
-    <row r="20" ht="20.1" customHeight="1"/>
-    <row r="21" ht="20.1" customHeight="1"/>
-    <row r="22" ht="20.1" customHeight="1"/>
-    <row r="23" ht="20.1" customHeight="1"/>
-    <row r="24" ht="20.1" customHeight="1"/>
-    <row r="25" ht="20.1" customHeight="1"/>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/price.xlsx
+++ b/price.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19740" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="报价" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc613" localSheetId="0">报价!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">报价!$A$1:$G$31</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">报价!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>买卖酷报价清单</t>
   </si>
@@ -46,9 +48,6 @@
   </si>
   <si>
     <t>系统优化</t>
-  </si>
-  <si>
-    <t>redis</t>
   </si>
   <si>
     <t>1、加快页面响应速度
@@ -62,9 +61,6 @@
     <t>加快数据库备份速度，及安全性</t>
   </si>
   <si>
-    <t> Hikari</t>
-  </si>
-  <si>
     <t>利用高性能连接池，加快数据库响应速度</t>
   </si>
   <si>
@@ -72,9 +68,6 @@
   </si>
   <si>
     <t>配合CDN，针对大图片量的页面，提高页面响应速度</t>
-  </si>
-  <si>
-    <t> Lucene</t>
   </si>
   <si>
     <t>无需查询数据库，提高商品搜索速度</t>
@@ -146,12 +139,6 @@
     <t>发布流程步骤以及评价标准</t>
   </si>
   <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>jenkins的安装、部署以及应用</t>
-  </si>
-  <si>
     <t>java多线程</t>
   </si>
   <si>
@@ -176,26 +163,95 @@
     <t>禅道</t>
   </si>
   <si>
+    <t>权限模型</t>
+  </si>
+  <si>
+    <t>session设计</t>
+  </si>
+  <si>
+    <t>全文搜索</t>
+  </si>
+  <si>
+    <t>框架分层</t>
+  </si>
+  <si>
+    <t>实现项目的自动部署，发布
+1.配置SVN 
+2.配置GIT
+3.自动build
+4.触发器的使用
+5.自动检查
+6.自动部署
+7.数据库自动备份，恢复
+8.数据库的同步</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限模型的灵活设计
+1.权限模型的角色分离
+2.权限模型的资源关联(菜单等等)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现server的横向切分
+1.使用token的设计去去掉session 
+2.增加session服务器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现server检索优化，减少数据库访问
+1.数据索引的建立 
+2.索引到数据库的映射</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现框架数据功能和规范的统一
+1.框架逻辑分层 
+2.公司公共库的封装</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>合计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库导入导出工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t> Hikari</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t> Lucene</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t> Lucene</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -223,8 +279,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -309,96 +386,103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="常规 2" xfId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -697,6 +781,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -729,15 +814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
@@ -745,443 +829,566 @@
     <col min="4" max="4" width="41.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="42.75" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="46.5" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6">
         <v>1.5</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="E5" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="E7" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="B21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="E8" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="E9" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="B27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="E11" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="B29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" ht="53.25" customHeight="1" spans="1:7">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="B30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" ht="42" customHeight="1" spans="1:7">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" ht="27" customHeight="1" spans="1:7">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
-        <f>SUM(E3:E10)</f>
-        <v>6.75</v>
-      </c>
-      <c r="F23" s="7">
-        <f>SUM(F3:F10)</f>
+      <c r="C30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24">
+        <f>SUM(E3:E26)</f>
+        <v>9.5</v>
+      </c>
+      <c r="F31" s="24">
+        <f>SUM(F3:F26)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" ht="20.1" customHeight="1"/>
-    <row r="25" ht="20.1" customHeight="1"/>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
-    <row r="29" ht="20.1" customHeight="1"/>
-    <row r="30" ht="20.1" customHeight="1"/>
-    <row r="31" ht="20.1" customHeight="1"/>
-    <row r="32" ht="20.1" customHeight="1"/>
-    <row r="33" ht="20.1" customHeight="1"/>
-    <row r="34" ht="20.1" customHeight="1"/>
-    <row r="35" ht="20.1" customHeight="1"/>
-    <row r="36" ht="20.1" customHeight="1"/>
-    <row r="37" ht="20.1" customHeight="1"/>
-    <row r="38" ht="20.1" customHeight="1"/>
-    <row r="39" ht="20.1" customHeight="1"/>
-    <row r="40" ht="20.1" customHeight="1"/>
-    <row r="41" ht="20.1" customHeight="1"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.314583333333333" footer="0.314583333333333"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>